--- a/ig/sd-group-characteristic-alignement-vs/all-profiles.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8217" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:49:53+00:00</t>
+    <t>2024-01-10T17:41:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -789,7 +789,10 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>List of characteristics used to describe group members; e.g. gender, age, owner, location, etc.</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-group-characteristic-kind-vs</t>
   </si>
   <si>
     <t>Group.characteristic.value[x]</t>
@@ -822,9 +825,6 @@
   </si>
   <si>
     <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
@@ -4905,7 +4905,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="75.2734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="82.8359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="244.98046875" customWidth="true" bestFit="true"/>
@@ -9378,13 +9378,11 @@
         <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z43" t="s" s="2">
         <v>248</v>
       </c>
+      <c r="Z43" s="2"/>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>76</v>
@@ -9422,10 +9420,10 @@
         <v>121</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -9448,19 +9446,19 @@
         <v>76</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>76</v>
@@ -9488,7 +9486,7 @@
         <v>210</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -9497,7 +9495,7 @@
         <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" t="s" s="2">
@@ -9507,7 +9505,7 @@
         <v>93</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -9527,13 +9525,13 @@
         <v>121</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>76</v>
@@ -9558,16 +9556,16 @@
         <v>118</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>76</v>
@@ -9592,7 +9590,7 @@
         <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
@@ -9614,7 +9612,7 @@
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>83</v>
@@ -11373,7 +11371,7 @@
         <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" t="s" s="2">
@@ -13887,7 +13885,7 @@
         <v>76</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>372</v>
@@ -19662,7 +19660,7 @@
         <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>560</v>
@@ -20613,7 +20611,7 @@
         <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>560</v>
@@ -21562,7 +21560,7 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>622</v>
@@ -21667,7 +21665,7 @@
         <v>76</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z160" s="2"/>
       <c r="AA160" t="s" s="2">
@@ -21770,7 +21768,7 @@
         <v>76</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z161" s="2"/>
       <c r="AA161" t="s" s="2">
@@ -25031,7 +25029,7 @@
         <v>76</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>748</v>

--- a/ig/sd-group-characteristic-alignement-vs/all-profiles.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-10T17:41:42+00:00</t>
+    <t>2024-01-11T08:51:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
